--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AN)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AN).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AN)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AN).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | AC 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An
-Ana
-Anacamptis - fam. Orchidacées
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Anacamptis - fam. Orchidacées
 Anacamptis pyramidalis - Orchis pyramidal
 Anacardium - fam. Anacardiacées (arbre fruitier)
 Anacardium occidentale - Noix de cajou ou « Acajou à pommes »
@@ -541,15 +561,91 @@
 Anaphalis margaritacea - Immortelle de Virginie - photo
 Anaphalis sinica
 Anaphalis sinica morii
-Anaphalis triplinervis - photo
-Anc
-Anchusa - fam. Boraginaceae
+Anaphalis triplinervis - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Anc</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anchusa - fam. Boraginaceae
 Anchusa azurea - Buglosse d'Italie ou Fausse bourrache (syn.Anchusa italica Retz.)
 Anchusa capensis - Buglosse du Cap
 Anchusa crispa - Buglosse crêpu
-Anchusa officinalis - Buglosse officinale
-And
-Andira
+Anchusa officinalis - Buglosse officinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>And</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Andira
 Andrachne
 Androcalymma
 Andromeda
@@ -573,9 +669,47 @@
 Andryala integrifolia - Andryale à feuilles entières
 Andryala laxiflora
 Andryala levitomentosa
-Andryala ragusina
-Ane
-Anemone - fam. Renonculacées
+Andryala ragusina</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ane</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anemone - fam. Renonculacées
 Anemone altaica
 Anemone apennina -  Anémone des Apennins
 Anemone baldensis
@@ -620,31 +754,221 @@
 Anemonopsis
 Anethum - fam. Apiacées
 Anethum graveolens - Aneth ou Fenouil bâtard
-Anethum sowa - Aneth Indien
-Ang
-Angelica - fam. Apiacées
+Anethum sowa - Aneth Indien</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ang</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Angelica - fam. Apiacées
 Angelica archangelica - Angélique officinale - photo
 Angelica atropurpurea - Angélique noire-pourprée
 Angelica gigas - photo
 Angelica heterocarpa - Angélique à fruits variables
 Angelica lucida - Angélique brillante
 Angelonia
-Angelonia gardneri
-Ani
-Anisoptera - fam. Diptérocarpacées
-Anisoptera costata
-Ann
-Annona - fam. Annonaceae (arbre fruitier)
+Angelonia gardneri</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ani</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Anisoptera - fam. Diptérocarpacées
+Anisoptera costata</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ann</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Annona - fam. Annonaceae (arbre fruitier)
 Annona muricata - Corossolier
 Annona reticulata - Cœur de bœuf, Cachiman, Corossolier réticulé
 Annona squamosa - Attier
 Anogramma
-Anogramma leptophylla
-Anq
-Aquilegia
-Aquilegia canadensis - Ancolie du Canada
-Ant
-Antegibbaeum
+Anogramma leptophylla</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Anq</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aquilegia
+Aquilegia canadensis - Ancolie du Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AN)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antegibbaeum
 Antegibbaeum fissoides
 Antennaria - (plante vivace)
 Antennaria canadensis - Antennaire du Canada
